--- a/SE2223_57046_59748_60062_60437_64859/Phase 2/Sprint4/Sprint backlog.xlsx
+++ b/SE2223_57046_59748_60062_60437_64859/Phase 2/Sprint4/Sprint backlog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLOR\Desktop\jaime\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaime\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DCD0CF-B37E-42EA-92D4-8A71A4155851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -79,25 +69,25 @@
     <t>Reviewing</t>
   </si>
   <si>
-    <t>Phase 1 - Sprint1</t>
-  </si>
-  <si>
-    <t>Add constraint date to task</t>
-  </si>
-  <si>
-    <t>Add constraint to task</t>
-  </si>
-  <si>
-    <t>Implement - Vertical Line system</t>
-  </si>
-  <si>
     <t>Implement - Close daily information system</t>
+  </si>
+  <si>
+    <t>Implement - Show daily information system</t>
+  </si>
+  <si>
+    <t>Implement - Add constraint date to task</t>
+  </si>
+  <si>
+    <t>Implement -  Add constraint to task</t>
+  </si>
+  <si>
+    <t>Phase 2 - Sprint4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,8 +240,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,10 +247,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,11 +566,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,12 +584,12 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -613,9 +603,9 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
-      <c r="C5" s="10" t="s">
-        <v>16</v>
+      <c r="B5" s="10"/>
+      <c r="C5" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -624,9 +614,9 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="10" t="s">
-        <v>15</v>
+      <c r="B6" s="10"/>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -635,9 +625,9 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
+      <c r="B7" s="10"/>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -646,19 +636,19 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="14"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
@@ -666,8 +656,8 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
@@ -675,8 +665,8 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
@@ -684,8 +674,8 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
@@ -693,8 +683,8 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
@@ -702,8 +692,8 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
@@ -711,39 +701,13 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
